--- a/experiment/output/results/OfficeHome/CORAL/DG/0.xlsx
+++ b/experiment/output/results/OfficeHome/CORAL/DG/0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,6 +507,134 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>250210_13-19-52_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>65.294</v>
+      </c>
+      <c r="E3" t="n">
+        <v>65.499</v>
+      </c>
+      <c r="F3" t="n">
+        <v>53.913</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>250210_18-59-26_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>67.559</v>
+      </c>
+      <c r="E4" t="n">
+        <v>65.191</v>
+      </c>
+      <c r="F4" t="n">
+        <v>65.345</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>250210_15-09-27_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>61.74</v>
+      </c>
+      <c r="E5" t="n">
+        <v>63.749</v>
+      </c>
+      <c r="F5" t="n">
+        <v>62.564</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>250210_17-08-37_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>60.35</v>
+      </c>
+      <c r="E6" t="n">
+        <v>55.613</v>
+      </c>
+      <c r="F6" t="n">
+        <v>52.163</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiment/output/results/OfficeHome/CORAL/DG/0.xlsx
+++ b/experiment/output/results/OfficeHome/CORAL/DG/0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,134 +507,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>250210_13-19-52_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>65.294</v>
-      </c>
-      <c r="E3" t="n">
-        <v>65.499</v>
-      </c>
-      <c r="F3" t="n">
-        <v>53.913</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>250210_18-59-26_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>67.559</v>
-      </c>
-      <c r="E4" t="n">
-        <v>65.191</v>
-      </c>
-      <c r="F4" t="n">
-        <v>65.345</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>250210_15-09-27_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>61.74</v>
-      </c>
-      <c r="E5" t="n">
-        <v>63.749</v>
-      </c>
-      <c r="F5" t="n">
-        <v>62.564</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>250210_17-08-37_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>60.35</v>
-      </c>
-      <c r="E6" t="n">
-        <v>55.613</v>
-      </c>
-      <c r="F6" t="n">
-        <v>52.163</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
